--- a/国信TradeStation产品问题分类-4月.xlsx
+++ b/国信TradeStation产品问题分类-4月.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17426"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="6345" yWindow="15" windowWidth="15600" windowHeight="9165" tabRatio="762" activeTab="2"/>
@@ -254,223 +254,223 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>如何获得昨收盘价或前几日收盘价？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>策略、指标或APP插入或打开后提示“研究未验证”？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何实时获得账号资金信息？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何解决“应用程序”的组件中发生了未经处理的异常？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何通过EasyLanguage发送融资融券账户的委托？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何在程序中增加一个定时器轮询？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何将代码批量导入到雷达屏？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何解决仅当“提供程序”处于关闭状态时，symbol的属性值可被更改？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>声明变量时前面加上intrabarperist 是什么意思？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何获取委托的成交状态？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发送委托后如何撤单？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何使用PriceSeriesProvider获得行情数据？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何快速平仓或一键平仓？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何取消下单确认或调出提交委托时的确认对话框？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单失效是什么原因？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提示“Unable to establish connection.”是什么原因？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何清空一个txt文件中的内容？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何判断委托是否成交？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保留字buy,sell,sellshort,buytocover 对应的分别是什么操作？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何使用PriceSeriesProvider计算MACD？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何解决错误提示提供商的数据在对象为“已加载”前不能访问？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何解决错误提示无法把tsdata.trading.order分配给guosen.order？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何在字符串中插入换行？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>常用组件的更新机制是什么？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何在EasyLanguage中创建雷达屏或图形分析并插入代码？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何实现构造一篮子指数并实时监测？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何使用GlobalDictionary共享变量？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何解决EasyLanguage的帮助文档无法打开？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何获取当前仓位中的所有证券代码？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何使用FundamentalQuotesProvider获取基本面数据？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何在策略或指标中获取基本面数据？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何设置满足一定条件发出提醒或报警？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国信TradeStation目前支持哪些品种？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何获取特定代码的除权除息数据？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何测试委托发送需要的时间或测试下单耗时？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何实现字符串（string）与双精度（double）等类型的互相转换？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何根据Excel发送委托？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何读取文本文件txt并发送委托？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何记录数据或日志到文件？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何写一个函数或一个方法？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何获取成交均价？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何根据代码获得证券标的名称？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何获得撤单被拒绝的信息？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>什么情况下Order会变成CancelPending状态？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何使用Marketdepthprovider获得盘口实时行情？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何获取实时的换手率数据？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何获取实时的基本面数据？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何获取前复权数据，后复权数据，不复权数据？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何使用QuotesProvider获取报价或属性等数据？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何使用PartialFillInfoCollection查询Order的委托分笔成交明细？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何使用OrdersProvider查询历史委托？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何获取订单的成交时间？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何解决“检索有效价格过程中存在延迟。订单将不被发送，直到一个有效价格被检索出来。”？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>如何使用OrderTicket在指标和策略中下单？</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>如何获得昨收盘价或前几日收盘价？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>策略、指标或APP插入或打开后提示“研究未验证”？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如何实时获得账号资金信息？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>如何使用PositionsProvider获得可用持仓或可平仓数？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如何解决“应用程序”的组件中发生了未经处理的异常？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如何通过EasyLanguage发送融资融券账户的委托？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如何在程序中增加一个定时器轮询？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如何将代码批量导入到雷达屏？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如何解决仅当“提供程序”处于关闭状态时，symbol的属性值可被更改？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>声明变量时前面加上intrabarperist 是什么意思？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如何获取委托的成交状态？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>发送委托后如何撤单？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如何使用PriceSeriesProvider获得行情数据？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如何快速平仓或一键平仓？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如何取消下单确认或调出提交委托时的确认对话框？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>订单失效是什么原因？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提示“Unable to establish connection.”是什么原因？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如何清空一个txt文件中的内容？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如何判断委托是否成交？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>保留字buy,sell,sellshort,buytocover 对应的分别是什么操作？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如何使用PriceSeriesProvider计算MACD？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如何解决错误提示提供商的数据在对象为“已加载”前不能访问？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如何解决错误提示无法把tsdata.trading.order分配给guosen.order？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如何在字符串中插入换行？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>常用组件的更新机制是什么？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如何在EasyLanguage中创建雷达屏或图形分析并插入代码？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如何实现构造一篮子指数并实时监测？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如何使用GlobalDictionary共享变量？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如何解决EasyLanguage的帮助文档无法打开？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如何获取当前仓位中的所有证券代码？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如何使用FundamentalQuotesProvider获取基本面数据？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如何在策略或指标中获取基本面数据？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如何设置满足一定条件发出提醒或报警？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>国信TradeStation目前支持哪些品种？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如何获取特定代码的除权除息数据？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如何测试委托发送需要的时间或测试下单耗时？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如何实现字符串（string）与双精度（double）等类型的互相转换？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如何根据Excel发送委托？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如何读取文本文件txt并发送委托？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如何记录数据或日志到文件？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如何写一个函数或一个方法？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如何获取成交均价？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如何根据代码获得证券标的名称？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如何获得撤单被拒绝的信息？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>什么情况下Order会变成CancelPending状态？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如何使用Marketdepthprovider获得盘口实时行情？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如何获取实时的换手率数据？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如何获取实时的基本面数据？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如何获取前复权数据，后复权数据，不复权数据？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如何使用QuotesProvider获取报价或属性等数据？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如何使用PartialFillInfoCollection查询Order的委托分笔成交明细？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如何使用OrdersProvider查询历史委托？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如何获取订单的成交时间？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如何解决“检索有效价格过程中存在延迟。订单将不被发送，直到一个有效价格被检索出来。”？</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -725,23 +725,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -777,23 +760,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1253,47 +1219,47 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -1308,7 +1274,7 @@
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1324,7 +1290,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B2" t="s">
         <v>43</v>
@@ -1335,12 +1301,12 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B4" t="s">
         <v>50</v>
@@ -1348,77 +1314,77 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>58</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>62</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -1441,7 +1407,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1521,137 +1487,137 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>

--- a/国信TradeStation产品问题分类-4月.xlsx
+++ b/国信TradeStation产品问题分类-4月.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17426"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="6345" yWindow="15" windowWidth="15600" windowHeight="9165" tabRatio="762" activeTab="2"/>
@@ -290,187 +290,187 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>发送委托后如何撤单？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何使用PriceSeriesProvider获得行情数据？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何快速平仓或一键平仓？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何取消下单确认或调出提交委托时的确认对话框？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单失效是什么原因？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提示“Unable to establish connection.”是什么原因？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何清空一个txt文件中的内容？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何判断委托是否成交？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保留字buy,sell,sellshort,buytocover 对应的分别是什么操作？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何使用PriceSeriesProvider计算MACD？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何解决错误提示提供商的数据在对象为“已加载”前不能访问？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何解决错误提示无法把tsdata.trading.order分配给guosen.order？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何在字符串中插入换行？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>常用组件的更新机制是什么？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何在EasyLanguage中创建雷达屏或图形分析并插入代码？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何实现构造一篮子指数并实时监测？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何使用GlobalDictionary共享变量？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何解决EasyLanguage的帮助文档无法打开？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何获取当前仓位中的所有证券代码？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何使用FundamentalQuotesProvider获取基本面数据？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何在策略或指标中获取基本面数据？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何设置满足一定条件发出提醒或报警？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国信TradeStation目前支持哪些品种？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何获取特定代码的除权除息数据？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何测试委托发送需要的时间或测试下单耗时？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何实现字符串（string）与双精度（double）等类型的互相转换？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何根据Excel发送委托？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何读取文本文件txt并发送委托？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何记录数据或日志到文件？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何写一个函数或一个方法？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何获取成交均价？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何根据代码获得证券标的名称？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何获得撤单被拒绝的信息？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>什么情况下Order会变成CancelPending状态？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何使用Marketdepthprovider获得盘口实时行情？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何获取实时的换手率数据？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何获取实时的基本面数据？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何获取前复权数据，后复权数据，不复权数据？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何使用QuotesProvider获取报价或属性等数据？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何使用PartialFillInfoCollection查询Order的委托分笔成交明细？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何使用OrdersProvider查询历史委托？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何获取订单的成交时间？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何解决“检索有效价格过程中存在延迟。订单将不被发送，直到一个有效价格被检索出来。”？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何使用OrderTicket在指标和策略中下单？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何使用PositionsProvider获得可用持仓或可平仓数？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>如何获取委托的成交状态？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>发送委托后如何撤单？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如何使用PriceSeriesProvider获得行情数据？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如何快速平仓或一键平仓？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如何取消下单确认或调出提交委托时的确认对话框？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>订单失效是什么原因？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提示“Unable to establish connection.”是什么原因？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如何清空一个txt文件中的内容？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如何判断委托是否成交？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>保留字buy,sell,sellshort,buytocover 对应的分别是什么操作？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如何使用PriceSeriesProvider计算MACD？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如何解决错误提示提供商的数据在对象为“已加载”前不能访问？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如何解决错误提示无法把tsdata.trading.order分配给guosen.order？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如何在字符串中插入换行？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>常用组件的更新机制是什么？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如何在EasyLanguage中创建雷达屏或图形分析并插入代码？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如何实现构造一篮子指数并实时监测？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如何使用GlobalDictionary共享变量？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如何解决EasyLanguage的帮助文档无法打开？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如何获取当前仓位中的所有证券代码？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如何使用FundamentalQuotesProvider获取基本面数据？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如何在策略或指标中获取基本面数据？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如何设置满足一定条件发出提醒或报警？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>国信TradeStation目前支持哪些品种？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如何获取特定代码的除权除息数据？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如何测试委托发送需要的时间或测试下单耗时？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如何实现字符串（string）与双精度（double）等类型的互相转换？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如何根据Excel发送委托？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如何读取文本文件txt并发送委托？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如何记录数据或日志到文件？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如何写一个函数或一个方法？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如何获取成交均价？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如何根据代码获得证券标的名称？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如何获得撤单被拒绝的信息？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>什么情况下Order会变成CancelPending状态？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如何使用Marketdepthprovider获得盘口实时行情？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如何获取实时的换手率数据？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如何获取实时的基本面数据？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如何获取前复权数据，后复权数据，不复权数据？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如何使用QuotesProvider获取报价或属性等数据？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如何使用PartialFillInfoCollection查询Order的委托分笔成交明细？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如何使用OrdersProvider查询历史委托？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如何获取订单的成交时间？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如何解决“检索有效价格过程中存在延迟。订单将不被发送，直到一个有效价格被检索出来。”？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如何使用OrderTicket在指标和策略中下单？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如何使用PositionsProvider获得可用持仓或可平仓数？</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -725,6 +725,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -760,6 +777,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1224,42 +1258,42 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -1274,7 +1308,7 @@
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1290,7 +1324,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B2" t="s">
         <v>43</v>
@@ -1301,12 +1335,12 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B4" t="s">
         <v>50</v>
@@ -1314,22 +1348,22 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
@@ -1339,52 +1373,52 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>67</v>
+        <v>112</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -1487,7 +1521,7 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.15">
@@ -1497,7 +1531,7 @@
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.15">
@@ -1507,7 +1541,7 @@
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.15">
@@ -1532,92 +1566,92 @@
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>

--- a/国信TradeStation产品问题分类-4月.xlsx
+++ b/国信TradeStation产品问题分类-4月.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17426"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="6345" yWindow="15" windowWidth="15600" windowHeight="9165" tabRatio="762" activeTab="2"/>
+    <workbookView xWindow="6345" yWindow="15" windowWidth="15600" windowHeight="9165" tabRatio="762" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -306,171 +306,171 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>提示“Unable to establish connection.”是什么原因？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何清空一个txt文件中的内容？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何判断委托是否成交？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何使用PriceSeriesProvider计算MACD？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何解决错误提示提供商的数据在对象为“已加载”前不能访问？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何解决错误提示无法把tsdata.trading.order分配给guosen.order？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何在字符串中插入换行？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>常用组件的更新机制是什么？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何在EasyLanguage中创建雷达屏或图形分析并插入代码？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何实现构造一篮子指数并实时监测？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何使用GlobalDictionary共享变量？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何解决EasyLanguage的帮助文档无法打开？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何使用FundamentalQuotesProvider获取基本面数据？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何在策略或指标中获取基本面数据？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何设置满足一定条件发出提醒或报警？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国信TradeStation目前支持哪些品种？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何获取特定代码的除权除息数据？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何测试委托发送需要的时间或测试下单耗时？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何实现字符串（string）与双精度（double）等类型的互相转换？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何根据Excel发送委托？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何读取文本文件txt并发送委托？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何记录数据或日志到文件？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何写一个函数或一个方法？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何获取成交均价？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何根据代码获得证券标的名称？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何使用Marketdepthprovider获得盘口实时行情？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何获取实时的换手率数据？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何获取实时的基本面数据？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何获取前复权数据，后复权数据，不复权数据？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何使用QuotesProvider获取报价或属性等数据？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何使用PartialFillInfoCollection查询Order的委托分笔成交明细？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何使用OrdersProvider查询历史委托？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何获取订单的成交时间？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何解决“检索有效价格过程中存在延迟。订单将不被发送，直到一个有效价格被检索出来。”？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何使用OrderTicket在指标和策略中下单？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何使用PositionsProvider获得可用持仓或可平仓数？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何获取委托的成交状态？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>订单失效是什么原因？</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>提示“Unable to establish connection.”是什么原因？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如何清空一个txt文件中的内容？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如何判断委托是否成交？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>保留字buy,sell,sellshort,buytocover 对应的分别是什么操作？</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>如何使用PriceSeriesProvider计算MACD？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如何解决错误提示提供商的数据在对象为“已加载”前不能访问？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如何解决错误提示无法把tsdata.trading.order分配给guosen.order？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如何在字符串中插入换行？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>常用组件的更新机制是什么？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如何在EasyLanguage中创建雷达屏或图形分析并插入代码？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如何实现构造一篮子指数并实时监测？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如何使用GlobalDictionary共享变量？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如何解决EasyLanguage的帮助文档无法打开？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>如何获取当前仓位中的所有证券代码？</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>如何使用FundamentalQuotesProvider获取基本面数据？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如何在策略或指标中获取基本面数据？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如何设置满足一定条件发出提醒或报警？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>国信TradeStation目前支持哪些品种？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如何获取特定代码的除权除息数据？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如何测试委托发送需要的时间或测试下单耗时？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如何实现字符串（string）与双精度（double）等类型的互相转换？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如何根据Excel发送委托？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如何读取文本文件txt并发送委托？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如何记录数据或日志到文件？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如何写一个函数或一个方法？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如何获取成交均价？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如何根据代码获得证券标的名称？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>如何获得撤单被拒绝的信息？</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>什么情况下Order会变成CancelPending状态？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如何使用Marketdepthprovider获得盘口实时行情？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如何获取实时的换手率数据？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如何获取实时的基本面数据？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如何获取前复权数据，后复权数据，不复权数据？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如何使用QuotesProvider获取报价或属性等数据？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如何使用PartialFillInfoCollection查询Order的委托分笔成交明细？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如何使用OrdersProvider查询历史委托？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如何获取订单的成交时间？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如何解决“检索有效价格过程中存在延迟。订单将不被发送，直到一个有效价格被检索出来。”？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如何使用OrderTicket在指标和策略中下单？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如何使用PositionsProvider获得可用持仓或可平仓数？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如何获取委托的成交状态？</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1258,7 +1258,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
@@ -1268,32 +1268,32 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -1307,8 +1307,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1324,7 +1324,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B2" t="s">
         <v>43</v>
@@ -1335,12 +1335,12 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B4" t="s">
         <v>50</v>
@@ -1348,22 +1348,22 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
@@ -1373,7 +1373,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
@@ -1388,37 +1388,37 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>71</v>
+        <v>108</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>75</v>
+        <v>109</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>110</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -1454,7 +1454,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -1495,7 +1495,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A30"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView topLeftCell="A8" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
@@ -1531,7 +1531,7 @@
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.15">
@@ -1541,7 +1541,7 @@
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.15">
@@ -1566,92 +1566,92 @@
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/国信TradeStation产品问题分类-4月.xlsx
+++ b/国信TradeStation产品问题分类-4月.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17426"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="6345" yWindow="15" windowWidth="15600" windowHeight="9165" tabRatio="762" activeTab="4"/>
+    <workbookView xWindow="6345" yWindow="15" windowWidth="15600" windowHeight="9165" tabRatio="762" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -266,10 +266,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>如何解决“应用程序”的组件中发生了未经处理的异常？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>如何通过EasyLanguage发送融资融券账户的委托？</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -302,175 +298,179 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>提示“Unable to establish connection.”是什么原因？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何清空一个txt文件中的内容？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何判断委托是否成交？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何使用PriceSeriesProvider计算MACD？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何解决错误提示提供商的数据在对象为“已加载”前不能访问？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何解决错误提示无法把tsdata.trading.order分配给guosen.order？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何在字符串中插入换行？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>常用组件的更新机制是什么？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何实现构造一篮子指数并实时监测？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何使用GlobalDictionary共享变量？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何解决EasyLanguage的帮助文档无法打开？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何在策略或指标中获取基本面数据？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何设置满足一定条件发出提醒或报警？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国信TradeStation目前支持哪些品种？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何获取特定代码的除权除息数据？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何测试委托发送需要的时间或测试下单耗时？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何实现字符串（string）与双精度（double）等类型的互相转换？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何根据Excel发送委托？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何读取文本文件txt并发送委托？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何记录数据或日志到文件？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何写一个函数或一个方法？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何获取成交均价？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何根据代码获得证券标的名称？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何使用Marketdepthprovider获得盘口实时行情？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何获取实时的换手率数据？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何获取实时的基本面数据？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何获取前复权数据，后复权数据，不复权数据？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何使用QuotesProvider获取报价或属性等数据？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何使用PartialFillInfoCollection查询Order的委托分笔成交明细？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何使用OrdersProvider查询历史委托？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何获取订单的成交时间？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何解决“检索有效价格过程中存在延迟。订单将不被发送，直到一个有效价格被检索出来。”？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何使用OrderTicket在指标和策略中下单？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何使用PositionsProvider获得可用持仓或可平仓数？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何获取委托的成交状态？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单失效是什么原因？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保留字buy,sell,sellshort,buytocover 对应的分别是什么操作？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何获取当前仓位中的所有证券代码？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何获得撤单被拒绝的信息？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>什么情况下Order会变成CancelPending状态？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>如何取消下单确认或调出提交委托时的确认对话框？</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>提示“Unable to establish connection.”是什么原因？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如何清空一个txt文件中的内容？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如何判断委托是否成交？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如何使用PriceSeriesProvider计算MACD？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如何解决错误提示提供商的数据在对象为“已加载”前不能访问？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如何解决错误提示无法把tsdata.trading.order分配给guosen.order？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如何在字符串中插入换行？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>常用组件的更新机制是什么？</t>
+    <t>如何使用FundamentalQuotesProvider获取基本面数据？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何解决"应用程序"的组件中发生了未经处理的异常？</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>如何在EasyLanguage中创建雷达屏或图形分析并插入代码？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如何实现构造一篮子指数并实时监测？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如何使用GlobalDictionary共享变量？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如何解决EasyLanguage的帮助文档无法打开？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如何使用FundamentalQuotesProvider获取基本面数据？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如何在策略或指标中获取基本面数据？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如何设置满足一定条件发出提醒或报警？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>国信TradeStation目前支持哪些品种？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如何获取特定代码的除权除息数据？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如何测试委托发送需要的时间或测试下单耗时？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如何实现字符串（string）与双精度（double）等类型的互相转换？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如何根据Excel发送委托？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如何读取文本文件txt并发送委托？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如何记录数据或日志到文件？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如何写一个函数或一个方法？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如何获取成交均价？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如何根据代码获得证券标的名称？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如何使用Marketdepthprovider获得盘口实时行情？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如何获取实时的换手率数据？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如何获取实时的基本面数据？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如何获取前复权数据，后复权数据，不复权数据？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如何使用QuotesProvider获取报价或属性等数据？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如何使用PartialFillInfoCollection查询Order的委托分笔成交明细？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如何使用OrdersProvider查询历史委托？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如何获取订单的成交时间？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如何解决“检索有效价格过程中存在延迟。订单将不被发送，直到一个有效价格被检索出来。”？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如何使用OrderTicket在指标和策略中下单？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如何使用PositionsProvider获得可用持仓或可平仓数？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如何获取委托的成交状态？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>订单失效是什么原因？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>保留字buy,sell,sellshort,buytocover 对应的分别是什么操作？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如何获取当前仓位中的所有证券代码？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如何获得撤单被拒绝的信息？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>什么情况下Order会变成CancelPending状态？</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1258,42 +1258,42 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -1324,7 +1324,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B2" t="s">
         <v>43</v>
@@ -1335,12 +1335,12 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B4" t="s">
         <v>50</v>
@@ -1348,77 +1348,77 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -1454,8 +1454,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1495,13 +1495,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A30"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="40" customWidth="1"/>
+    <col min="1" max="1" width="67.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.15">
@@ -1521,7 +1521,7 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>70</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.15">
@@ -1531,127 +1531,127 @@
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>83</v>
+        <v>110</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>61</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>79</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>

--- a/国信TradeStation产品问题分类-4月.xlsx
+++ b/国信TradeStation产品问题分类-4月.xlsx
@@ -282,195 +282,195 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>发送委托后如何撤单？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何使用PriceSeriesProvider获得行情数据？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何快速平仓或一键平仓？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提示“Unable to establish connection.”是什么原因？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何清空一个txt文件中的内容？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何判断委托是否成交？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何使用PriceSeriesProvider计算MACD？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何解决错误提示提供商的数据在对象为“已加载”前不能访问？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何解决错误提示无法把tsdata.trading.order分配给guosen.order？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何在字符串中插入换行？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>常用组件的更新机制是什么？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何实现构造一篮子指数并实时监测？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何使用GlobalDictionary共享变量？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何解决EasyLanguage的帮助文档无法打开？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何设置满足一定条件发出提醒或报警？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国信TradeStation目前支持哪些品种？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何获取特定代码的除权除息数据？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何测试委托发送需要的时间或测试下单耗时？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何实现字符串（string）与双精度（double）等类型的互相转换？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何根据Excel发送委托？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何读取文本文件txt并发送委托？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何记录数据或日志到文件？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何写一个函数或一个方法？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何获取成交均价？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何根据代码获得证券标的名称？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何使用Marketdepthprovider获得盘口实时行情？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何获取实时的换手率数据？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何获取实时的基本面数据？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何获取前复权数据，后复权数据，不复权数据？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何使用QuotesProvider获取报价或属性等数据？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何使用PartialFillInfoCollection查询Order的委托分笔成交明细？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何使用OrdersProvider查询历史委托？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何获取订单的成交时间？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何解决“检索有效价格过程中存在延迟。订单将不被发送，直到一个有效价格被检索出来。”？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何使用OrderTicket在指标和策略中下单？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何使用PositionsProvider获得可用持仓或可平仓数？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何获取委托的成交状态？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单失效是什么原因？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保留字buy,sell,sellshort,buytocover 对应的分别是什么操作？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何获取当前仓位中的所有证券代码？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何获得撤单被拒绝的信息？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>什么情况下Order会变成CancelPending状态？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何取消下单确认或调出提交委托时的确认对话框？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何使用FundamentalQuotesProvider获取基本面数据？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何解决"应用程序"的组件中发生了未经处理的异常？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何在EasyLanguage中创建雷达屏或图形分析并插入代码？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>声明变量时前面加上intrabarperist 是什么意思？</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>发送委托后如何撤单？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如何使用PriceSeriesProvider获得行情数据？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如何快速平仓或一键平仓？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提示“Unable to establish connection.”是什么原因？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如何清空一个txt文件中的内容？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如何判断委托是否成交？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如何使用PriceSeriesProvider计算MACD？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如何解决错误提示提供商的数据在对象为“已加载”前不能访问？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如何解决错误提示无法把tsdata.trading.order分配给guosen.order？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如何在字符串中插入换行？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>常用组件的更新机制是什么？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如何实现构造一篮子指数并实时监测？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如何使用GlobalDictionary共享变量？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如何解决EasyLanguage的帮助文档无法打开？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如何在策略或指标中获取基本面数据？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如何设置满足一定条件发出提醒或报警？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>国信TradeStation目前支持哪些品种？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如何获取特定代码的除权除息数据？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如何测试委托发送需要的时间或测试下单耗时？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如何实现字符串（string）与双精度（double）等类型的互相转换？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如何根据Excel发送委托？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如何读取文本文件txt并发送委托？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如何记录数据或日志到文件？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如何写一个函数或一个方法？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如何获取成交均价？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如何根据代码获得证券标的名称？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如何使用Marketdepthprovider获得盘口实时行情？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如何获取实时的换手率数据？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如何获取实时的基本面数据？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如何获取前复权数据，后复权数据，不复权数据？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如何使用QuotesProvider获取报价或属性等数据？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如何使用PartialFillInfoCollection查询Order的委托分笔成交明细？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如何使用OrdersProvider查询历史委托？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如何获取订单的成交时间？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如何解决“检索有效价格过程中存在延迟。订单将不被发送，直到一个有效价格被检索出来。”？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如何使用OrderTicket在指标和策略中下单？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如何使用PositionsProvider获得可用持仓或可平仓数？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如何获取委托的成交状态？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>订单失效是什么原因？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>保留字buy,sell,sellshort,buytocover 对应的分别是什么操作？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如何获取当前仓位中的所有证券代码？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如何获得撤单被拒绝的信息？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>什么情况下Order会变成CancelPending状态？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如何取消下单确认或调出提交委托时的确认对话框？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如何使用FundamentalQuotesProvider获取基本面数据？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如何解决"应用程序"的组件中发生了未经处理的异常？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如何在EasyLanguage中创建雷达屏或图形分析并插入代码？</t>
+    <t>StreamReader读取的中文乱码怎么解决？</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1258,42 +1258,42 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -1324,7 +1324,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B2" t="s">
         <v>43</v>
@@ -1335,12 +1335,12 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B4" t="s">
         <v>50</v>
@@ -1348,22 +1348,22 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
@@ -1373,52 +1373,52 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -1495,8 +1495,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1521,7 +1521,7 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.15">
@@ -1531,17 +1531,17 @@
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.15">
@@ -1561,87 +1561,87 @@
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>65</v>
+        <v>111</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.15">
@@ -1651,7 +1651,7 @@
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
